--- a/documents/digital/表结构说明/oms_shop_info.xlsx
+++ b/documents/digital/表结构说明/oms_shop_info.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_shop_info" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_shop_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -33,41 +39,215 @@
     <t>shop_level</t>
   </si>
   <si>
+    <t>really_area</t>
+  </si>
+  <si>
+    <t>vector_area</t>
+  </si>
+  <si>
+    <t>share_ratio</t>
+  </si>
+  <si>
+    <t>budgetary_price</t>
+  </si>
+  <si>
+    <t>booth_desc</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
     <t>oms_shop_infocol</t>
-  </si>
-  <si>
-    <t>really_area</t>
-  </si>
-  <si>
-    <t>vector_area</t>
-  </si>
-  <si>
-    <t>share_ratio</t>
-  </si>
-  <si>
-    <t>budgetary_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>B_PUBIG</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_BOOTH</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+NewestBoothLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestReallyArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestVectorArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestShareRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+NewestBudgetaryPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorplateRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+BoothDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>doorplate_remarks</t>
-  </si>
-  <si>
-    <t>booth_desc</t>
-  </si>
-  <si>
-    <t>is_del</t>
-  </si>
-  <si>
-    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>dealer_id</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>series_id</t>
+  </si>
+  <si>
+    <t>series_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,69 +267,469 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="38.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_shop_info.xlsx
+++ b/documents/digital/表结构说明/oms_shop_info.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="oms_shop_info" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,9 +30,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>shop_number</t>
-  </si>
-  <si>
     <t>market_id</t>
   </si>
   <si>
@@ -79,7 +82,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>ms</t>
     </r>
@@ -93,7 +95,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em1</t>
     </r>
@@ -107,7 +108,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em2</t>
     </r>
@@ -115,112 +115,114 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>C</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>B_PUBIG</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
+      <t>_BOOTH</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+NewestBoothLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestReallyArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestVectorArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewestShareRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+NewestBudgetaryPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorplateRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+BoothDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doorplate_remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>dealer_id</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>series_id</t>
+  </si>
+  <si>
+    <t>series_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBIG001</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>_BOOTH</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBIG002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBIG003</t>
+      <t>B_PUBIG</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PUBIG_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-NewestBoothLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewestReallyArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewestVectorArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewestShareRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-NewestBudgetaryPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoorplateRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-BoothDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doorplate_remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBIG004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-  </si>
-  <si>
-    <t>dealer_id</t>
-  </si>
-  <si>
-    <t>brand_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>series_id</t>
-  </si>
-  <si>
-    <t>series_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBIG001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -249,6 +251,10 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,6 +285,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -340,12 +350,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -375,12 +385,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -562,124 +572,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -687,34 +700,34 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="45">
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -723,13 +736,35 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="176.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_shop_info.xlsx
+++ b/documents/digital/表结构说明/oms_shop_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oms_shop_info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +216,30 @@
   <si>
     <t>PUBIG_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select
+PUBIG_ID id_uuid,
+PUBIG_ID shop_number,
+PUBIG002 market_id_uuid,
+'' market_id,
+'' market_name,
+PUBIG003 booth_code,
+'' shop_level,
+'' oms_shop_infocol,
+'' really_area,
+'' vector_area,
+'' share_ratio,
+'' budgetary_price,
+'' doorplate_remarks,
+PUBIG004 booth_desc,
+'' company_id
+FROM
+ TB_PUBIG
+where
+ rownum &lt; 100;
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,10 +309,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -676,10 +700,10 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -749,20 +773,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="176.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:1" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
+    <row r="2" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
